--- a/output/fit_clients/fit_round_483.xlsx
+++ b/output/fit_clients/fit_round_483.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1878077690.796489</v>
+        <v>2015063176.514969</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111374633912432</v>
+        <v>0.1116408699720094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03962433745957638</v>
+        <v>0.04372963996106583</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>939038824.6494697</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2069879680.816409</v>
+        <v>2545830470.082396</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1507978121815274</v>
+        <v>0.141691679718435</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03173208209475228</v>
+        <v>0.0404270166855495</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1034939891.308312</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4696589454.653298</v>
+        <v>5165999129.750959</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1258113398161569</v>
+        <v>0.1317775365014033</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02752731223441883</v>
+        <v>0.03329733777525359</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>174</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2348294790.8876</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3395764527.431334</v>
+        <v>2843142645.11739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1062372126086405</v>
+        <v>0.07179865697957687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0311649305885957</v>
+        <v>0.03296240567298445</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>178</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1697882307.379488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2120442520.589407</v>
+        <v>2725995402.836744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1101546521752973</v>
+        <v>0.142478747512369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03745300757041207</v>
+        <v>0.03701098137709303</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1060221276.878142</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2941689837.38588</v>
+        <v>2468552182.875805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0768708273436423</v>
+        <v>0.09938318270270061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0407698163103791</v>
+        <v>0.03299243399940736</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1470844889.279974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3013661254.245381</v>
+        <v>2720630863.416155</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1574030307442561</v>
+        <v>0.2028733197953934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03008730671320266</v>
+        <v>0.0335613688474237</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>154</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1506830686.053202</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1742522708.82607</v>
+        <v>1541821408.313609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1362287896604826</v>
+        <v>0.147899899719336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02973969468029415</v>
+        <v>0.03414104573214211</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>871261416.7690892</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3975160021.182919</v>
+        <v>4832072536.774298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1842620137149281</v>
+        <v>0.1419858910019161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04724857055201576</v>
+        <v>0.05407512096391173</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>203</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1987580030.608854</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2615902517.27508</v>
+        <v>3689875819.132585</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1464722904964234</v>
+        <v>0.1428261662356128</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03492401774382033</v>
+        <v>0.04800231860583237</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>199</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1307951174.826747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2813519838.948312</v>
+        <v>3075373149.323512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1579701530087003</v>
+        <v>0.1793891018822774</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03349459501136844</v>
+        <v>0.03759703420864968</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>163</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1406759920.434499</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3220617879.339145</v>
+        <v>3551031548.837151</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06702454916318787</v>
+        <v>0.09068026518929879</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01900554446389401</v>
+        <v>0.02263919265118921</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>162</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1610309034.203933</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3515104200.2165</v>
+        <v>2663207273.154377</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1271672848085507</v>
+        <v>0.1813260312009886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02889652579231842</v>
+        <v>0.02798352732221134</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1757552097.267311</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1660256608.191381</v>
+        <v>1561352639.805921</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07002123601206998</v>
+        <v>0.06794286216261353</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03298010819454229</v>
+        <v>0.04611893779516512</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>830128425.9484739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2196755447.148687</v>
+        <v>2359581565.639153</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1148153569204396</v>
+        <v>0.1025853527660632</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0385661428415071</v>
+        <v>0.04903593148816304</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1098377781.506501</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3575346876.420627</v>
+        <v>4526807927.386164</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1453157026661687</v>
+        <v>0.1342301056057427</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05096337647708267</v>
+        <v>0.05119198958346947</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1787673493.828372</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3355551677.904899</v>
+        <v>3241157543.604859</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1504839309406453</v>
+        <v>0.1697841136396689</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03386101636429632</v>
+        <v>0.02337708121835505</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>158</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1677775843.492975</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1070759550.920533</v>
+        <v>1324709401.204189</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1254502829294333</v>
+        <v>0.1811353821553557</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01920855048479272</v>
+        <v>0.02032493664062268</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>535379821.9210567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1779538432.712739</v>
+        <v>2433978158.708724</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1102101038132265</v>
+        <v>0.1461887159556655</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02443609292617639</v>
+        <v>0.02108349665831948</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>889769266.2166185</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2544557684.732728</v>
+        <v>1726907274.235783</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025714946280648</v>
+        <v>0.07176430627202519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03886814655259314</v>
+        <v>0.02971212275051708</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1272278826.251551</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2677961820.241855</v>
+        <v>3860117326.083598</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1399987032190784</v>
+        <v>0.1077682380164102</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03737835478815386</v>
+        <v>0.05598991453238289</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1338980990.959123</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1291744893.260501</v>
+        <v>1045839120.237785</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1392830480441228</v>
+        <v>0.1272716711891567</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04160071510849483</v>
+        <v>0.03620307577746971</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>645872467.6703173</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3767181470.571862</v>
+        <v>3454206868.199663</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1234803880846117</v>
+        <v>0.1108856252566126</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03099001978709675</v>
+        <v>0.02346418896244967</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1883590718.944196</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1029112354.156537</v>
+        <v>1296648759.125606</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1175134944889724</v>
+        <v>0.1099819957382148</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01934047267104152</v>
+        <v>0.02758366714010976</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>514556234.3890044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1013125386.794356</v>
+        <v>1224775692.283806</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07510860218330144</v>
+        <v>0.08466268088208874</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03858076361513753</v>
+        <v>0.02881229145826852</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>506562668.721386</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4446757622.572128</v>
+        <v>3261210717.614736</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1165980461025274</v>
+        <v>0.1072047558066478</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02637262651085269</v>
+        <v>0.02446712648708459</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2223378799.251013</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3122915136.781106</v>
+        <v>2679780247.018514</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1034226535616447</v>
+        <v>0.09570018094780909</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03389605679271563</v>
+        <v>0.04172456887492429</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1561457590.335459</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4786109850.663307</v>
+        <v>5085806332.298227</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1121161969966096</v>
+        <v>0.09548972659870901</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04431755510981088</v>
+        <v>0.03813238552111049</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>213</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2393054887.700902</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2003847148.731314</v>
+        <v>1693138945.87266</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1244331106838172</v>
+        <v>0.0847985694258922</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0342971627251057</v>
+        <v>0.03073886369074339</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1001923612.269734</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1421787193.471344</v>
+        <v>1199895846.73507</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07086429833905813</v>
+        <v>0.0914079254048023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0374848797500408</v>
+        <v>0.03466704415287814</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>710893496.020232</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1605294800.937457</v>
+        <v>1836217818.583553</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1091098763854004</v>
+        <v>0.118525871137818</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02340336526214782</v>
+        <v>0.02464079453406293</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>802647490.6474985</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3089941133.452414</v>
+        <v>3087401198.218915</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1447261470696898</v>
+        <v>0.2027147658339573</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0507351616330314</v>
+        <v>0.03878512802290175</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>149</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1544970554.702755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1143263697.801365</v>
+        <v>1567772414.208246</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09675455568882586</v>
+        <v>0.08000421878567426</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01811645281370683</v>
+        <v>0.01774943101258056</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>571631863.2628525</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>849728968.2708884</v>
+        <v>1002716948.49419</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1065431188913711</v>
+        <v>0.1085049138769648</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03083127561583882</v>
+        <v>0.04474861369240202</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>424864535.6769726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2600098697.70865</v>
+        <v>2904331374.822941</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1759497122859557</v>
+        <v>0.1498295684102878</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02391859502355394</v>
+        <v>0.0212748661034774</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1300049362.831921</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2916016894.175358</v>
+        <v>2671804015.335264</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07107801003721056</v>
+        <v>0.08275271660513442</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03389238242358212</v>
+        <v>0.02607645112923829</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>129</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1458008600.385849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2063593463.671137</v>
+        <v>1638172376.736094</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1035412972289473</v>
+        <v>0.08181997075819637</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03195762062597873</v>
+        <v>0.02634260191146737</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1031796701.500038</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1565141386.067826</v>
+        <v>2189263658.634429</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1913500507276677</v>
+        <v>0.119875999626628</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02014012172763865</v>
+        <v>0.02233775238507041</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>782570753.637012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1209187807.863683</v>
+        <v>1744560728.314111</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1623283101490215</v>
+        <v>0.1149029448714919</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05560691383933426</v>
+        <v>0.05791162746078463</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>604593942.9532948</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2379695706.133433</v>
+        <v>2772119672.890843</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1397835734325855</v>
+        <v>0.1432847012419336</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04564867751082291</v>
+        <v>0.03397289761847491</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>117</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1189847890.14509</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3531462762.019261</v>
+        <v>2846858748.177293</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09672255842439013</v>
+        <v>0.0913421381116758</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03041726492182188</v>
+        <v>0.03953718152636098</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1765731378.076701</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2695816535.475667</v>
+        <v>2883086669.007005</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1333514692014948</v>
+        <v>0.1306531936322032</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01921062001720047</v>
+        <v>0.02577244734873976</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1347908296.71975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1938713344.747411</v>
+        <v>1788352571.195746</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09729751327587986</v>
+        <v>0.07845924936992331</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02841472312844692</v>
+        <v>0.02787792987375521</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>969356766.5027305</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2170095391.14704</v>
+        <v>2177540694.896112</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1764237016406317</v>
+        <v>0.1766086460461966</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04123581218951369</v>
+        <v>0.0429613383206504</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1085047703.590696</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3859681297.326662</v>
+        <v>4876067173.650968</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1556439900943975</v>
+        <v>0.1303322927044099</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05700839470308808</v>
+        <v>0.04615372257117333</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>171</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1929840610.169523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3786459931.20068</v>
+        <v>3149100380.670903</v>
       </c>
       <c r="F47" t="n">
-        <v>0.154276318022948</v>
+        <v>0.1671116002920984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04655637969654647</v>
+        <v>0.0404574875662144</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1893229952.637081</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4125129643.574902</v>
+        <v>3431037449.332217</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09685913597564064</v>
+        <v>0.08126271777517123</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02463888754652056</v>
+        <v>0.03571055960910746</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>158</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2062564848.892895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1456334858.211436</v>
+        <v>1675504567.345909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1909027550753569</v>
+        <v>0.1880281029832335</v>
       </c>
       <c r="G49" t="n">
-        <v>0.037648582761131</v>
+        <v>0.03530750345178998</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>728167467.9539857</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3052878334.403156</v>
+        <v>3042369455.735915</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1582059359359966</v>
+        <v>0.1233745433591007</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04802926146860684</v>
+        <v>0.0483207194518788</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>165</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1526439223.293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1288783741.144438</v>
+        <v>1132670760.907696</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1305583605033044</v>
+        <v>0.1383983028274236</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0483138739439831</v>
+        <v>0.05374334715457105</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>644391907.761735</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4909311682.766154</v>
+        <v>5238844177.308574</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1217386670320668</v>
+        <v>0.1202135151348362</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04650453345357791</v>
+        <v>0.04128121613226617</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>199</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2454655844.365347</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2401633044.330298</v>
+        <v>3259905933.480734</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1568796438047982</v>
+        <v>0.1474689829367368</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02645006988030784</v>
+        <v>0.02625183407880117</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1200816595.957127</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4746379120.826635</v>
+        <v>3646593203.570873</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1104686129752807</v>
+        <v>0.1373381977363621</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03619130238235493</v>
+        <v>0.03896429668158426</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>158</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2373189683.120724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3997895725.549281</v>
+        <v>3538333183.52755</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1623207139975423</v>
+        <v>0.1770985434960373</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02149994287901631</v>
+        <v>0.0254398483710537</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1998947837.591696</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1419571096.158248</v>
+        <v>1259304463.828709</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1100869026170771</v>
+        <v>0.1153344749992787</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05559068185385396</v>
+        <v>0.04732369887590075</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>709785602.2846676</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2824588101.156885</v>
+        <v>4473437717.216671</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1346699233885248</v>
+        <v>0.1367798475848953</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01734541871981934</v>
+        <v>0.01902220355005657</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>153</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1412294040.278925</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1867987066.064334</v>
+        <v>1412754664.422005</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1953108185694974</v>
+        <v>0.1936633736858921</v>
       </c>
       <c r="G58" t="n">
-        <v>0.025688575694248</v>
+        <v>0.02448802819141378</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>933993530.6062597</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5075945277.840196</v>
+        <v>3623680604.375406</v>
       </c>
       <c r="F59" t="n">
-        <v>0.128122411457765</v>
+        <v>0.1159671594250333</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03926889742605534</v>
+        <v>0.04020185110087737</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2537972562.998552</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3727837104.672302</v>
+        <v>2757310187.23142</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1405466723370485</v>
+        <v>0.129027771482433</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02436570248366118</v>
+        <v>0.02343922145197471</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>153</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1863918699.052884</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2051039206.003306</v>
+        <v>2528932923.983101</v>
       </c>
       <c r="F61" t="n">
-        <v>0.116314337794776</v>
+        <v>0.1734494943575668</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03178261859064825</v>
+        <v>0.02379692057036975</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>166</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1025519672.980433</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1337009804.503149</v>
+        <v>1285399320.67233</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1822399816462514</v>
+        <v>0.1560289903320667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04108181465348346</v>
+        <v>0.03947396696633726</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>668504860.8547827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5352990055.892454</v>
+        <v>4116061456.2611</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09010730815830378</v>
+        <v>0.09631676981263726</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04516984115575982</v>
+        <v>0.03733046202524511</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2676495030.01003</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4609256649.469682</v>
+        <v>4897468376.616793</v>
       </c>
       <c r="F64" t="n">
-        <v>0.120673718985041</v>
+        <v>0.1166999162992737</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02386787090831204</v>
+        <v>0.02606245762903695</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>150</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2304628403.468927</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4317890951.580112</v>
+        <v>3983940826.809713</v>
       </c>
       <c r="F65" t="n">
-        <v>0.115380881307554</v>
+        <v>0.1452450846465413</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02072827564994831</v>
+        <v>0.03130090209633075</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>173</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2158945475.429899</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5589039193.18131</v>
+        <v>4118910744.79564</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1264584632842955</v>
+        <v>0.149677675726827</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03804242819311963</v>
+        <v>0.03905786045630084</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2794519655.367637</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2809333067.171472</v>
+        <v>2109259069.204053</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06220266817057535</v>
+        <v>0.08213420380831524</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03730074396726171</v>
+        <v>0.04249748111674123</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>155</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1404666568.045674</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5866184270.441875</v>
+        <v>4145345206.995666</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1023273681322245</v>
+        <v>0.1288912505620253</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03722915703755817</v>
+        <v>0.03659361097321386</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2933092244.125757</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2411116177.272423</v>
+        <v>1880015995.68655</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1553234677766998</v>
+        <v>0.1779963097479361</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04581686278219684</v>
+        <v>0.04535460003138185</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1205558146.769494</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3280438726.122521</v>
+        <v>2477565013.463413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06605400024118506</v>
+        <v>0.07112528650847889</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04617545233608931</v>
+        <v>0.04294781529804616</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>138</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1640219358.282791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5042387879.464675</v>
+        <v>5330035165.711833</v>
       </c>
       <c r="F71" t="n">
-        <v>0.143492014020443</v>
+        <v>0.1486419642819938</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02763955609020765</v>
+        <v>0.02728632361674032</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>175</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2521194048.627602</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1561494450.935372</v>
+        <v>1982449969.269954</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09073641099844269</v>
+        <v>0.08173730067022836</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04229361089879387</v>
+        <v>0.05145596774679874</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>780747242.5730736</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2183217176.83959</v>
+        <v>2751076857.363465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08674728192760955</v>
+        <v>0.1021932706237108</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03630514938967722</v>
+        <v>0.0354789094408749</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>182</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1091608659.225273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3776631611.344944</v>
+        <v>3541158391.910246</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1550227053849648</v>
+        <v>0.1666701090301472</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03332174089275207</v>
+        <v>0.02349624280984389</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>164</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1888315803.972579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2092268773.174471</v>
+        <v>2357673496.574519</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1576829383607377</v>
+        <v>0.1178834689839094</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03744788401204333</v>
+        <v>0.03265407802631655</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1046134342.114359</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5151762667.249461</v>
+        <v>3240107060.586563</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1127059910063018</v>
+        <v>0.1028429587445163</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0321071477528699</v>
+        <v>0.02337883529218693</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2575881366.633165</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1658448762.737542</v>
+        <v>1808478062.482842</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1524657342169279</v>
+        <v>0.1646805433431634</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02032957353869506</v>
+        <v>0.02917698295573474</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>829224392.4491169</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3176148311.771475</v>
+        <v>4544996463.104242</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09712360851691695</v>
+        <v>0.08397787805598361</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05225381891601979</v>
+        <v>0.0442206936274859</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>168</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1588074180.604556</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1203933742.254492</v>
+        <v>1481413403.052715</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1138513730588257</v>
+        <v>0.1390331098272345</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03187839346014085</v>
+        <v>0.03615559918779895</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>601966853.5872958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3656543603.299926</v>
+        <v>4912368309.504742</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08925002257952604</v>
+        <v>0.1016596307796592</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03043451719251648</v>
+        <v>0.0270428151743647</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1828271784.039937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4664077721.288638</v>
+        <v>4917257276.291526</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1295282532133219</v>
+        <v>0.1135623608700393</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03062601597146353</v>
+        <v>0.02754760432450786</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2332038848.543094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4830807719.774721</v>
+        <v>3425111297.184331</v>
       </c>
       <c r="F82" t="n">
-        <v>0.131787715568099</v>
+        <v>0.1582484396158925</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02825251562831831</v>
+        <v>0.02068086105368428</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>168</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2415403853.311674</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2258518956.245724</v>
+        <v>1634669117.64041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09714112128773228</v>
+        <v>0.1242469191267473</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03897515159530409</v>
+        <v>0.04088868681299717</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1129259495.60032</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2134865176.996975</v>
+        <v>1773500834.806069</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1066881745922791</v>
+        <v>0.1175382932049344</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04376141631661386</v>
+        <v>0.04210430413194948</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1067432573.761873</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2495859386.191542</v>
+        <v>2547907535.736845</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1685293437480986</v>
+        <v>0.1348656068562392</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05396109235792348</v>
+        <v>0.05637805974420417</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>181</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1247929697.640002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1933981225.137471</v>
+        <v>2764420386.206317</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1062093598742078</v>
+        <v>0.1632636869089152</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02315386474825631</v>
+        <v>0.02143403023698526</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>966990631.0371839</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1364490798.253189</v>
+        <v>1228272639.394664</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1789795249915211</v>
+        <v>0.185881584020614</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03240903466467108</v>
+        <v>0.03546544057602941</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>682245496.8937166</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2767590750.444201</v>
+        <v>2828526449.991698</v>
       </c>
       <c r="F88" t="n">
-        <v>0.142918735435003</v>
+        <v>0.1221780258053195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0350507621327968</v>
+        <v>0.03190520199754951</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>192</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1383795382.721495</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3059186816.802894</v>
+        <v>3410299755.127361</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1462487499798442</v>
+        <v>0.1193849590829807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03443841764863011</v>
+        <v>0.03488877763538858</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>163</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1529593442.183821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1846644457.978136</v>
+        <v>1947900108.461639</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09936764229179441</v>
+        <v>0.103922111770675</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03760964345143448</v>
+        <v>0.05454368986144344</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>923322271.1585857</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1609945056.106284</v>
+        <v>2033480317.928234</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1930878222022327</v>
+        <v>0.1422213798234909</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05609452731906251</v>
+        <v>0.04706936370113935</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>804972552.3252668</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2590406262.213599</v>
+        <v>2714300461.236519</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08107083156375224</v>
+        <v>0.08234556826893268</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04386089920909564</v>
+        <v>0.04660018182399444</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1295203121.917979</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3597432010.342051</v>
+        <v>4116016238.996871</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09865391044657312</v>
+        <v>0.1214847089614022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04591546937557374</v>
+        <v>0.05215271392430804</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>146</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1798716031.821932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1982740758.658595</v>
+        <v>2274359285.740417</v>
       </c>
       <c r="F94" t="n">
-        <v>0.151131040594422</v>
+        <v>0.1674090796825555</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04298978282523811</v>
+        <v>0.03249247433876396</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>991370375.4667184</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1980712684.530658</v>
+        <v>2875625340.526097</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09041501093723439</v>
+        <v>0.1341180155838174</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05092734211755163</v>
+        <v>0.04384189594034388</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>990356416.1777591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2110455465.328648</v>
+        <v>2063062463.588977</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08835742485508741</v>
+        <v>0.1174724739872106</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03797145672100122</v>
+        <v>0.02975308444882669</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1055227707.869107</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4185323931.391872</v>
+        <v>4951624653.126254</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1749413967064019</v>
+        <v>0.1708173027450024</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02119916823442468</v>
+        <v>0.02440279631316835</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>154</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2092662037.012163</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3365637393.690544</v>
+        <v>3671021115.910265</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1042680549491182</v>
+        <v>0.0793090540089879</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02155914094473278</v>
+        <v>0.02210830045134265</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>128</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1682818706.388395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2929609625.04876</v>
+        <v>2252517194.79434</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09021097628522161</v>
+        <v>0.1441992977947797</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0229948820162005</v>
+        <v>0.03411184072964146</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>154</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1464804793.38084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3603937840.971186</v>
+        <v>4530761964.693635</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1274855094793638</v>
+        <v>0.1212208938952409</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02432746758040932</v>
+        <v>0.01890364808444682</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1801968959.571811</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3387672162.972592</v>
+        <v>3515962521.478432</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1923109384648025</v>
+        <v>0.1919594342163577</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04949828473376799</v>
+        <v>0.05146543547824876</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>197</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1693836221.78195</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_483.xlsx
+++ b/output/fit_clients/fit_round_483.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2015063176.514969</v>
+        <v>1621467068.239228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1116408699720094</v>
+        <v>0.06965069208567719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04372963996106583</v>
+        <v>0.04114066471776785</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2545830470.082396</v>
+        <v>1951336154.274372</v>
       </c>
       <c r="F3" t="n">
-        <v>0.141691679718435</v>
+        <v>0.1712954974308593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0404270166855495</v>
+        <v>0.04007711649942942</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5165999129.750959</v>
+        <v>4204504070.976813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1317775365014033</v>
+        <v>0.1294702992229495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03329733777525359</v>
+        <v>0.02345431554011253</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2843142645.11739</v>
+        <v>4206220219.113404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07179865697957687</v>
+        <v>0.1052880427236695</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03296240567298445</v>
+        <v>0.0335068775657574</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2725995402.836744</v>
+        <v>2268002716.551677</v>
       </c>
       <c r="F6" t="n">
-        <v>0.142478747512369</v>
+        <v>0.1145760822146841</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03701098137709303</v>
+        <v>0.0539493781577076</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2468552182.875805</v>
+        <v>2458922708.047306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09938318270270061</v>
+        <v>0.07365865516733178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03299243399940736</v>
+        <v>0.04329623645830212</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2720630863.416155</v>
+        <v>2768860163.917261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2028733197953934</v>
+        <v>0.1372019808363224</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0335613688474237</v>
+        <v>0.02226253854076788</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1541821408.313609</v>
+        <v>1505950548.175315</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147899899719336</v>
+        <v>0.1821512184914481</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03414104573214211</v>
+        <v>0.03636199687576162</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4832072536.774298</v>
+        <v>4430272814.934359</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1419858910019161</v>
+        <v>0.1461702105430989</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05407512096391173</v>
+        <v>0.04088934168244973</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3689875819.132585</v>
+        <v>3881917450.859929</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1428261662356128</v>
+        <v>0.173095774380625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04800231860583237</v>
+        <v>0.040941302661911</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3075373149.323512</v>
+        <v>3010756878.32649</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1793891018822774</v>
+        <v>0.1685652967861735</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03759703420864968</v>
+        <v>0.05234662902857431</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3551031548.837151</v>
+        <v>3571375670.304254</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09068026518929879</v>
+        <v>0.09323433985395001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02263919265118921</v>
+        <v>0.02912895188168227</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2663207273.154377</v>
+        <v>3420975614.226365</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1813260312009886</v>
+        <v>0.1862429756977536</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02798352732221134</v>
+        <v>0.04011622568755117</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1561352639.805921</v>
+        <v>1772555877.59837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06794286216261353</v>
+        <v>0.1013823668279048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04611893779516512</v>
+        <v>0.04955181959503149</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2359581565.639153</v>
+        <v>2869593160.969288</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1025853527660632</v>
+        <v>0.07108641647295791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04903593148816304</v>
+        <v>0.04921781707540338</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4526807927.386164</v>
+        <v>5274480803.961199</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1342301056057427</v>
+        <v>0.1406479160719159</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05119198958346947</v>
+        <v>0.04947708360401853</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3241157543.604859</v>
+        <v>3600265517.507538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1697841136396689</v>
+        <v>0.1278903966912764</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02337708121835505</v>
+        <v>0.02464924010264706</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1324709401.204189</v>
+        <v>926560262.9058292</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1811353821553557</v>
+        <v>0.1845997041475124</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02032493664062268</v>
+        <v>0.02409373380004274</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2433978158.708724</v>
+        <v>2095305547.940483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1461887159556655</v>
+        <v>0.1144283016971781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02108349665831948</v>
+        <v>0.02427820295219126</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1726907274.235783</v>
+        <v>2371717890.477796</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07176430627202519</v>
+        <v>0.0785599541795462</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02971212275051708</v>
+        <v>0.04167847298715737</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3860117326.083598</v>
+        <v>3619546887.718683</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1077682380164102</v>
+        <v>0.09246493990136503</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05598991453238289</v>
+        <v>0.04105143518055143</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1045839120.237785</v>
+        <v>1165588642.838424</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1272716711891567</v>
+        <v>0.1366129386384776</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03620307577746971</v>
+        <v>0.04343110105565203</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3454206868.199663</v>
+        <v>2883701862.455914</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1108856252566126</v>
+        <v>0.1332170308576259</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02346418896244967</v>
+        <v>0.03383111640508841</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1296648759.125606</v>
+        <v>1261332295.344055</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1099819957382148</v>
+        <v>0.1073165103120673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02758366714010976</v>
+        <v>0.02723201865497881</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1224775692.283806</v>
+        <v>1168028209.007433</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08466268088208874</v>
+        <v>0.08314685335833638</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02881229145826852</v>
+        <v>0.02937485851374504</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3261210717.614736</v>
+        <v>3121437181.868754</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1072047558066478</v>
+        <v>0.1394369863928137</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02446712648708459</v>
+        <v>0.01646835105893162</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2679780247.018514</v>
+        <v>2884530810.065674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09570018094780909</v>
+        <v>0.09218962489361174</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04172456887492429</v>
+        <v>0.03469101141084622</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5085806332.298227</v>
+        <v>3655406031.6925</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09548972659870901</v>
+        <v>0.14123249583709</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03813238552111049</v>
+        <v>0.04145261988160765</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1693138945.87266</v>
+        <v>2359095363.937257</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0847985694258922</v>
+        <v>0.1154675696942375</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03073886369074339</v>
+        <v>0.02752780400531485</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1199895846.73507</v>
+        <v>1134686812.1239</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0914079254048023</v>
+        <v>0.07728385733703046</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03466704415287814</v>
+        <v>0.03172698703609926</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1836217818.583553</v>
+        <v>1669403540.439223</v>
       </c>
       <c r="F32" t="n">
-        <v>0.118525871137818</v>
+        <v>0.09401311916843005</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02464079453406293</v>
+        <v>0.02633593245051965</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3087401198.218915</v>
+        <v>2129850188.304416</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2027147658339573</v>
+        <v>0.1454913148434693</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03878512802290175</v>
+        <v>0.05630624312212984</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1567772414.208246</v>
+        <v>1101353181.652999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08000421878567426</v>
+        <v>0.1060100100317214</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01774943101258056</v>
+        <v>0.02809738920091819</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1002716948.49419</v>
+        <v>1243795489.334996</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1085049138769648</v>
+        <v>0.1041084411410884</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04474861369240202</v>
+        <v>0.02924340094080394</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2904331374.822941</v>
+        <v>3010354703.509341</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1498295684102878</v>
+        <v>0.1169404290567563</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0212748661034774</v>
+        <v>0.02867449707606091</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2671804015.335264</v>
+        <v>2003187561.503349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08275271660513442</v>
+        <v>0.08101540305794064</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02607645112923829</v>
+        <v>0.02907957746640161</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1638172376.736094</v>
+        <v>1724210536.987459</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08181997075819637</v>
+        <v>0.07502370776287315</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02634260191146737</v>
+        <v>0.02815451442569637</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2189263658.634429</v>
+        <v>1338922839.253539</v>
       </c>
       <c r="F39" t="n">
-        <v>0.119875999626628</v>
+        <v>0.1472457574214829</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02233775238507041</v>
+        <v>0.03290940156471504</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1744560728.314111</v>
+        <v>1163567535.852886</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1149029448714919</v>
+        <v>0.1558018970749998</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05791162746078463</v>
+        <v>0.05685871068787052</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2772119672.890843</v>
+        <v>2527996125.014607</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1432847012419336</v>
+        <v>0.1297548481828851</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03397289761847491</v>
+        <v>0.03326256211304503</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2846858748.177293</v>
+        <v>3596521220.044225</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0913421381116758</v>
+        <v>0.08397935679252115</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03953718152636098</v>
+        <v>0.04084687681468157</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2883086669.007005</v>
+        <v>2737621132.164417</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1306531936322032</v>
+        <v>0.1234422052004679</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02577244734873976</v>
+        <v>0.02446464854026172</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1788352571.195746</v>
+        <v>1621785336.061502</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07845924936992331</v>
+        <v>0.07993909276138771</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02787792987375521</v>
+        <v>0.0296392394838741</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2177540694.896112</v>
+        <v>1534752514.997383</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1766086460461966</v>
+        <v>0.1638214072834806</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0429613383206504</v>
+        <v>0.0351040723526956</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4876067173.650968</v>
+        <v>3800974694.864346</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1303322927044099</v>
+        <v>0.1622140386965027</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04615372257117333</v>
+        <v>0.0534114776697278</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3149100380.670903</v>
+        <v>4382820287.006982</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1671116002920984</v>
+        <v>0.2030010442880894</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0404574875662144</v>
+        <v>0.03659886363082447</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3431037449.332217</v>
+        <v>2866790895.946313</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08126271777517123</v>
+        <v>0.09326505552778973</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03571055960910746</v>
+        <v>0.038690130906091</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1675504567.345909</v>
+        <v>1396280160.019341</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1880281029832335</v>
+        <v>0.1731195363453999</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03530750345178998</v>
+        <v>0.04034015036843575</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3042369455.735915</v>
+        <v>2944642109.477606</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1233745433591007</v>
+        <v>0.1260721392207939</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0483207194518788</v>
+        <v>0.04722282645178391</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1132670760.907696</v>
+        <v>1116708004.880645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1383983028274236</v>
+        <v>0.1911981398898442</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05374334715457105</v>
+        <v>0.0478978844043472</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5238844177.308574</v>
+        <v>4013901611.111349</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1202135151348362</v>
+        <v>0.09830823521463949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04128121613226617</v>
+        <v>0.03927083424850108</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3259905933.480734</v>
+        <v>3199699981.084647</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1474689829367368</v>
+        <v>0.1526476528355255</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02625183407880117</v>
+        <v>0.02531682904882768</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3646593203.570873</v>
+        <v>3554275220.74463</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1373381977363621</v>
+        <v>0.1638168017306587</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03896429668158426</v>
+        <v>0.04332262992783348</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3538333183.52755</v>
+        <v>3049887574.975335</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1770985434960373</v>
+        <v>0.2030080746830774</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0254398483710537</v>
+        <v>0.02847856576822891</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1259304463.828709</v>
+        <v>1295344163.831549</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1153344749992787</v>
+        <v>0.1488327034604871</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04732369887590075</v>
+        <v>0.05412258810314396</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4473437717.216671</v>
+        <v>2823663609.224386</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1367798475848953</v>
+        <v>0.1231269328887729</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01902220355005657</v>
+        <v>0.02621782531085229</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1412754664.422005</v>
+        <v>1456410430.230493</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1936633736858921</v>
+        <v>0.1963151343150792</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02448802819141378</v>
+        <v>0.03807279326488556</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3623680604.375406</v>
+        <v>5186703783.972177</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159671594250333</v>
+        <v>0.09893134439331076</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04020185110087737</v>
+        <v>0.0301743461133514</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2757310187.23142</v>
+        <v>2847872065.00228</v>
       </c>
       <c r="F60" t="n">
-        <v>0.129027771482433</v>
+        <v>0.147416916032194</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02343922145197471</v>
+        <v>0.03204802328431235</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2528932923.983101</v>
+        <v>3106684879.566951</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1734494943575668</v>
+        <v>0.1443640892791741</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02379692057036975</v>
+        <v>0.02253895076366386</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1285399320.67233</v>
+        <v>2071827028.677278</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1560289903320667</v>
+        <v>0.1271289679788159</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03947396696633726</v>
+        <v>0.04875515639998539</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4116061456.2611</v>
+        <v>4867601810.67459</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09631676981263726</v>
+        <v>0.06829397595830385</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03733046202524511</v>
+        <v>0.03693055832120441</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4897468376.616793</v>
+        <v>5362296762.984629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1166999162992737</v>
+        <v>0.1716313883158602</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02606245762903695</v>
+        <v>0.03036224367464121</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3983940826.809713</v>
+        <v>5729095996.875307</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1452450846465413</v>
+        <v>0.1419829995185736</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03130090209633075</v>
+        <v>0.03098282762403949</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4118910744.79564</v>
+        <v>4187507420.898561</v>
       </c>
       <c r="F66" t="n">
-        <v>0.149677675726827</v>
+        <v>0.1475160728914673</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03905786045630084</v>
+        <v>0.0510994732408323</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2109259069.204053</v>
+        <v>3147958485.747549</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08213420380831524</v>
+        <v>0.08074404116403854</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04249748111674123</v>
+        <v>0.03889214531261967</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4145345206.995666</v>
+        <v>4811425394.982566</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1288912505620253</v>
+        <v>0.1580130684697002</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03659361097321386</v>
+        <v>0.03725084451540622</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1880015995.68655</v>
+        <v>2189165364.312413</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1779963097479361</v>
+        <v>0.1350894666601865</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04535460003138185</v>
+        <v>0.04789874166381314</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2477565013.463413</v>
+        <v>2911590807.997602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07112528650847889</v>
+        <v>0.07090384777928946</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04294781529804616</v>
+        <v>0.04196276669664783</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5330035165.711833</v>
+        <v>4994912551.669339</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1486419642819938</v>
+        <v>0.1233487466658236</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02728632361674032</v>
+        <v>0.02591296920906899</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1982449969.269954</v>
+        <v>1823389314.696011</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08173730067022836</v>
+        <v>0.1078022343126787</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05145596774679874</v>
+        <v>0.03274834973970584</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2751076857.363465</v>
+        <v>2613026611.796112</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1021932706237108</v>
+        <v>0.07329016656782808</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0354789094408749</v>
+        <v>0.05148615888628917</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3541158391.910246</v>
+        <v>2609217133.555073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1666701090301472</v>
+        <v>0.1637319657802193</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02349624280984389</v>
+        <v>0.0227312977543041</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2357673496.574519</v>
+        <v>2322575952.780917</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1178834689839094</v>
+        <v>0.1634840029163935</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03265407802631655</v>
+        <v>0.02834514158519953</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3240107060.586563</v>
+        <v>4015300426.352561</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028429587445163</v>
+        <v>0.09679695431827885</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02337883529218693</v>
+        <v>0.0310300952095913</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1808478062.482842</v>
+        <v>1451357196.174006</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1646805433431634</v>
+        <v>0.167008986362551</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02917698295573474</v>
+        <v>0.02630308706951954</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4544996463.104242</v>
+        <v>4189165581.7686</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08397787805598361</v>
+        <v>0.1012595556240134</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0442206936274859</v>
+        <v>0.05704225184259765</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1481413403.052715</v>
+        <v>1303978242.814647</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1390331098272345</v>
+        <v>0.1559928129662067</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03615559918779895</v>
+        <v>0.03882180875735835</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4912368309.504742</v>
+        <v>3469032775.965396</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016596307796592</v>
+        <v>0.0684605365313648</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0270428151743647</v>
+        <v>0.03219393388271451</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4917257276.291526</v>
+        <v>3932587054.574413</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1135623608700393</v>
+        <v>0.09245053196410633</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02754760432450786</v>
+        <v>0.0312244210969949</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3425111297.184331</v>
+        <v>3906122085.617562</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1582484396158925</v>
+        <v>0.178716420278009</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02068086105368428</v>
+        <v>0.0202935446593347</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1634669117.64041</v>
+        <v>2004443640.718687</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242469191267473</v>
+        <v>0.110537235016724</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04088868681299717</v>
+        <v>0.03991268150259775</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1773500834.806069</v>
+        <v>2215936877.684477</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175382932049344</v>
+        <v>0.08793312383041665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04210430413194948</v>
+        <v>0.0369170931941523</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2547907535.736845</v>
+        <v>2998695703.489818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1348656068562392</v>
+        <v>0.1295758835156637</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05637805974420417</v>
+        <v>0.0465866233341815</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2764420386.206317</v>
+        <v>2177298347.010112</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1632636869089152</v>
+        <v>0.1082602236163573</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02143403023698526</v>
+        <v>0.02742801985132829</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1228272639.394664</v>
+        <v>1480782171.954503</v>
       </c>
       <c r="F87" t="n">
-        <v>0.185881584020614</v>
+        <v>0.1550428470245348</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03546544057602941</v>
+        <v>0.03049844508959358</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2828526449.991698</v>
+        <v>2623703996.43201</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1221780258053195</v>
+        <v>0.1333315306821531</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03190520199754951</v>
+        <v>0.02921305960478688</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3410299755.127361</v>
+        <v>2234059474.045197</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1193849590829807</v>
+        <v>0.1161198784054221</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03488877763538858</v>
+        <v>0.02985498104747318</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1947900108.461639</v>
+        <v>1634470180.662231</v>
       </c>
       <c r="F90" t="n">
-        <v>0.103922111770675</v>
+        <v>0.1168336433868947</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05454368986144344</v>
+        <v>0.04753923935894211</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2033480317.928234</v>
+        <v>1479000157.40747</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1422213798234909</v>
+        <v>0.129128273191335</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04706936370113935</v>
+        <v>0.04256483344512238</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2714300461.236519</v>
+        <v>2619767868.930649</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08234556826893268</v>
+        <v>0.09380358063621236</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04660018182399444</v>
+        <v>0.04668286385389712</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4116016238.996871</v>
+        <v>3435211487.327085</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1214847089614022</v>
+        <v>0.1262150214496648</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05215271392430804</v>
+        <v>0.05061326564595818</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2274359285.740417</v>
+        <v>1645979884.838857</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1674090796825555</v>
+        <v>0.1275481188359108</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03249247433876396</v>
+        <v>0.0280298959477053</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2875625340.526097</v>
+        <v>2072316025.136372</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1341180155838174</v>
+        <v>0.124843516324383</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04384189594034388</v>
+        <v>0.04138536788583835</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2063062463.588977</v>
+        <v>2324945361.430663</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1174724739872106</v>
+        <v>0.1397576371186348</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02975308444882669</v>
+        <v>0.03249253952744522</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4951624653.126254</v>
+        <v>3643420204.806983</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1708173027450024</v>
+        <v>0.1410719959150809</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02440279631316835</v>
+        <v>0.02669052246124528</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3671021115.910265</v>
+        <v>3256174549.770016</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0793090540089879</v>
+        <v>0.09724083957901124</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02210830045134265</v>
+        <v>0.02106750087013925</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2252517194.79434</v>
+        <v>3016975099.710466</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1441992977947797</v>
+        <v>0.1120774916617101</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03411184072964146</v>
+        <v>0.0314936285273048</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4530761964.693635</v>
+        <v>3487363803.368511</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1212208938952409</v>
+        <v>0.1715792949693903</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01890364808444682</v>
+        <v>0.02512917794208833</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3515962521.478432</v>
+        <v>2629468469.395918</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1919594342163577</v>
+        <v>0.1408044061765235</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05146543547824876</v>
+        <v>0.04774033263297521</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_483.xlsx
+++ b/output/fit_clients/fit_round_483.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1621467068.239228</v>
+        <v>2304738183.163017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06965069208567719</v>
+        <v>0.07105697331722033</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04114066471776785</v>
+        <v>0.04020400210373294</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1951336154.274372</v>
+        <v>2345750881.868484</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1712954974308593</v>
+        <v>0.1396956523548729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04007711649942942</v>
+        <v>0.04764724105758592</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4204504070.976813</v>
+        <v>4861743564.10196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1294702992229495</v>
+        <v>0.1548442900919963</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02345431554011253</v>
+        <v>0.02543520319365701</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>244</v>
+      </c>
+      <c r="J4" t="n">
+        <v>482</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.75293513614376</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4206220219.113404</v>
+        <v>4069540667.231154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052880427236695</v>
+        <v>0.09250838618157202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0335068775657574</v>
+        <v>0.03516966965981289</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>204</v>
+      </c>
+      <c r="J5" t="n">
+        <v>483</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.05251237580932</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2268002716.551677</v>
+        <v>2674486642.898197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1145760822146841</v>
+        <v>0.1337077278581648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0539493781577076</v>
+        <v>0.03864645709810195</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2458922708.047306</v>
+        <v>2328325510.221747</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07365865516733178</v>
+        <v>0.07414163035858951</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04329623645830212</v>
+        <v>0.03355141704209116</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2768860163.917261</v>
+        <v>3119396428.462034</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1372019808363224</v>
+        <v>0.1951607216762348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02226253854076788</v>
+        <v>0.0208613371788082</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1505950548.175315</v>
+        <v>1431587651.563951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1821512184914481</v>
+        <v>0.1791061383984222</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03636199687576162</v>
+        <v>0.02344942953356104</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4430272814.934359</v>
+        <v>3983780997.917861</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1461702105430989</v>
+        <v>0.1890176945720527</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04088934168244973</v>
+        <v>0.04436987994940442</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>367</v>
+      </c>
+      <c r="J10" t="n">
+        <v>482</v>
+      </c>
+      <c r="K10" t="n">
+        <v>25.78746668457641</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3881917450.859929</v>
+        <v>4160423804.330293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.173095774380625</v>
+        <v>0.141479439225037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.040941302661911</v>
+        <v>0.0473622699518559</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>202</v>
+      </c>
+      <c r="J11" t="n">
+        <v>483</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.13634445387778</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3010756878.32649</v>
+        <v>2979526394.205477</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1685652967861735</v>
+        <v>0.1569041601542576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05234662902857431</v>
+        <v>0.04451449390761913</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3571375670.304254</v>
+        <v>4383697954.67626</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09323433985395001</v>
+        <v>0.08916572944648936</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02912895188168227</v>
+        <v>0.02001298809880377</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>250</v>
+      </c>
+      <c r="J13" t="n">
+        <v>482</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.0910375226988</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +925,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3420975614.226365</v>
+        <v>3877475024.907876</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1862429756977536</v>
+        <v>0.1773655243646244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04011622568755117</v>
+        <v>0.03289665365009264</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>111</v>
+      </c>
+      <c r="J14" t="n">
+        <v>483</v>
+      </c>
+      <c r="K14" t="n">
+        <v>41.88935310079117</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +962,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1772555877.59837</v>
+        <v>1759605135.012788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1013823668279048</v>
+        <v>0.06866898102977999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04955181959503149</v>
+        <v>0.03797383813685068</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +997,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2869593160.969288</v>
+        <v>2692922480.497785</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07108641647295791</v>
+        <v>0.1093817850708413</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04921781707540338</v>
+        <v>0.05185370091627046</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1032,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5274480803.961199</v>
+        <v>4230156870.982331</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1406479160719159</v>
+        <v>0.172034897708755</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04947708360401853</v>
+        <v>0.04690510384512224</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>236</v>
+      </c>
+      <c r="J17" t="n">
+        <v>483</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3600265517.507538</v>
+        <v>3171184603.549303</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1278903966912764</v>
+        <v>0.155352212074734</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02464924010264706</v>
+        <v>0.0332619311346915</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>926560262.9058292</v>
+        <v>907369650.0737078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1845997041475124</v>
+        <v>0.1484400524428619</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02409373380004274</v>
+        <v>0.0238741746714551</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2095305547.940483</v>
+        <v>2161850269.435366</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1144283016971781</v>
+        <v>0.1242035617630854</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02427820295219126</v>
+        <v>0.02524437163509257</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2371717890.477796</v>
+        <v>2575909087.661023</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0785599541795462</v>
+        <v>0.08993927517016798</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04167847298715737</v>
+        <v>0.04087231902786971</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1213,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3619546887.718683</v>
+        <v>3185576965.289344</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09246493990136503</v>
+        <v>0.1124527314933315</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04105143518055143</v>
+        <v>0.04176076246894869</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>142</v>
+      </c>
+      <c r="J22" t="n">
+        <v>482</v>
+      </c>
+      <c r="K22" t="n">
+        <v>24.95121361645021</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1165588642.838424</v>
+        <v>1320577859.678484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1366129386384776</v>
+        <v>0.1448483063710129</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04343110105565203</v>
+        <v>0.05208054874409364</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1279,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2883701862.455914</v>
+        <v>2793878134.30194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1332170308576259</v>
+        <v>0.1038107642139769</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03383111640508841</v>
+        <v>0.03216008941825067</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>153</v>
+      </c>
+      <c r="J24" t="n">
+        <v>482</v>
+      </c>
+      <c r="K24" t="n">
+        <v>18.22058297772132</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1322,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1261332295.344055</v>
+        <v>1104836021.187301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1073165103120673</v>
+        <v>0.1179154744862097</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02723201865497881</v>
+        <v>0.03029934983568172</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1357,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1168028209.007433</v>
+        <v>882244690.8611908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08314685335833638</v>
+        <v>0.1016558668999882</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02937485851374504</v>
+        <v>0.03644533159419425</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1386,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3121437181.868754</v>
+        <v>4280911932.136376</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1394369863928137</v>
+        <v>0.133186678166799</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01646835105893162</v>
+        <v>0.02533372219263191</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>215</v>
+      </c>
+      <c r="J27" t="n">
+        <v>483</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.25422868438824</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1423,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2884530810.065674</v>
+        <v>3607369508.391143</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09218962489361174</v>
+        <v>0.150510030418074</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03469101141084622</v>
+        <v>0.0370172555755463</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1458,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3655406031.6925</v>
+        <v>4619453682.273085</v>
       </c>
       <c r="F29" t="n">
-        <v>0.14123249583709</v>
+        <v>0.0950444264479712</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04145261988160765</v>
+        <v>0.03517905313372709</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>382</v>
+      </c>
+      <c r="J29" t="n">
+        <v>483</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2359095363.937257</v>
+        <v>2051366486.340704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1154675696942375</v>
+        <v>0.09653716186576963</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02752780400531485</v>
+        <v>0.03760055696309837</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1134686812.1239</v>
+        <v>933663340.0211028</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07728385733703046</v>
+        <v>0.1124192737250695</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03172698703609926</v>
+        <v>0.03725913470047684</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1669403540.439223</v>
+        <v>1570619518.125356</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09401311916843005</v>
+        <v>0.1206182419915387</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02633593245051965</v>
+        <v>0.03447022871775215</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1604,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2129850188.304416</v>
+        <v>3117769064.027262</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1454913148434693</v>
+        <v>0.1514871214806759</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05630624312212984</v>
+        <v>0.05785854404413079</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1101353181.652999</v>
+        <v>982582689.2903508</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1060100100317214</v>
+        <v>0.08910775999332921</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02809738920091819</v>
+        <v>0.01994030756347781</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1243795489.334996</v>
+        <v>953204683.7854741</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1041084411410884</v>
+        <v>0.07926190396779596</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02924340094080394</v>
+        <v>0.03787422916679738</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3010354703.509341</v>
+        <v>3250503089.606366</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1169404290567563</v>
+        <v>0.1527573112055871</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02867449707606091</v>
+        <v>0.01787560093851824</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1744,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2003187561.503349</v>
+        <v>2688685387.266542</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08101540305794064</v>
+        <v>0.06794173142805872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02907957746640161</v>
+        <v>0.03114361916554932</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1724210536.987459</v>
+        <v>1587918478.019547</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07502370776287315</v>
+        <v>0.1187557656581645</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02815451442569637</v>
+        <v>0.03937128890817566</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1338922839.253539</v>
+        <v>1674226861.316613</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1472457574214829</v>
+        <v>0.1307255107964623</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03290940156471504</v>
+        <v>0.03261034986432441</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1163567535.852886</v>
+        <v>1529810882.537541</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1558018970749998</v>
+        <v>0.1493869806407307</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05685871068787052</v>
+        <v>0.05732219955386835</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2527996125.014607</v>
+        <v>2465664028.083109</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1297548481828851</v>
+        <v>0.1437123566304608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03326256211304503</v>
+        <v>0.04575734173679437</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3596521220.044225</v>
+        <v>3967769212.810278</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08397935679252115</v>
+        <v>0.07669009889220285</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04084687681468157</v>
+        <v>0.03149393814385359</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>208</v>
+      </c>
+      <c r="J42" t="n">
+        <v>483</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2737621132.164417</v>
+        <v>2724608403.273803</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1234422052004679</v>
+        <v>0.1417134065069555</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02446464854026172</v>
+        <v>0.01943183039378068</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1621785336.061502</v>
+        <v>1454847576.171587</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07993909276138771</v>
+        <v>0.06217914560867215</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0296392394838741</v>
+        <v>0.03449087587606948</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2024,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1534752514.997383</v>
+        <v>2272972133.960093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1638214072834806</v>
+        <v>0.1759440406068723</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0351040723526956</v>
+        <v>0.03961523821780743</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2059,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3800974694.864346</v>
+        <v>5423293405.537435</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1622140386965027</v>
+        <v>0.1658220859129325</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0534114776697278</v>
+        <v>0.03911973629766946</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>284</v>
+      </c>
+      <c r="J46" t="n">
+        <v>483</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4382820287.006982</v>
+        <v>3264445688.755311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2030010442880894</v>
+        <v>0.2028421898624647</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03659886363082447</v>
+        <v>0.04420367225917688</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>219</v>
+      </c>
+      <c r="J47" t="n">
+        <v>482</v>
+      </c>
+      <c r="K47" t="n">
+        <v>18.91631287233286</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2866790895.946313</v>
+        <v>4036708876.622005</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09326505552778973</v>
+        <v>0.08281904282000166</v>
       </c>
       <c r="G48" t="n">
-        <v>0.038690130906091</v>
+        <v>0.03460601044068664</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>241</v>
+      </c>
+      <c r="J48" t="n">
+        <v>483</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1396280160.019341</v>
+        <v>1195959612.535371</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1731195363453999</v>
+        <v>0.1626578344200045</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04034015036843575</v>
+        <v>0.03333472357486047</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2944642109.477606</v>
+        <v>3963563303.515911</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1260721392207939</v>
+        <v>0.1135997636574622</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04722282645178391</v>
+        <v>0.04715715909124733</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>173</v>
+      </c>
+      <c r="J50" t="n">
+        <v>483</v>
+      </c>
+      <c r="K50" t="n">
+        <v>30.31043795453018</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1116708004.880645</v>
+        <v>1396583711.122399</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1911981398898442</v>
+        <v>0.1539891302750685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0478978844043472</v>
+        <v>0.03944459180563139</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4013901611.111349</v>
+        <v>5214106582.201617</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09830823521463949</v>
+        <v>0.1285316108201782</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03927083424850108</v>
+        <v>0.06192052510168806</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>270</v>
+      </c>
+      <c r="J52" t="n">
+        <v>483</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3199699981.084647</v>
+        <v>3245537229.25867</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1526476528355255</v>
+        <v>0.204200787436868</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02531682904882768</v>
+        <v>0.02558819103142832</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3554275220.74463</v>
+        <v>4613755642.693288</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1638168017306587</v>
+        <v>0.126519218242468</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04332262992783348</v>
+        <v>0.04368229343945444</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>255</v>
+      </c>
+      <c r="J54" t="n">
+        <v>482</v>
+      </c>
+      <c r="K54" t="n">
+        <v>29.14149901295502</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3049887574.975335</v>
+        <v>3226421530.270748</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2030080746830774</v>
+        <v>0.1353106947044652</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02847856576822891</v>
+        <v>0.03128955713168131</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>238</v>
+      </c>
+      <c r="J55" t="n">
+        <v>481</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1295344163.831549</v>
+        <v>1193594928.328504</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1488327034604871</v>
+        <v>0.1630792607408433</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05412258810314396</v>
+        <v>0.04408865423755813</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2823663609.224386</v>
+        <v>4509514891.851638</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1231269328887729</v>
+        <v>0.1722089435155191</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02621782531085229</v>
+        <v>0.01762398629263937</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>208</v>
+      </c>
+      <c r="J57" t="n">
+        <v>483</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1456410430.230493</v>
+        <v>1598935640.116885</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1963151343150792</v>
+        <v>0.179357733237657</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03807279326488556</v>
+        <v>0.0336642411613828</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5186703783.972177</v>
+        <v>3704527282.752391</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09893134439331076</v>
+        <v>0.08567321991919426</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0301743461133514</v>
+        <v>0.03512250629287862</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>236</v>
+      </c>
+      <c r="J59" t="n">
+        <v>483</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2847872065.00228</v>
+        <v>3727514993.932663</v>
       </c>
       <c r="F60" t="n">
-        <v>0.147416916032194</v>
+        <v>0.1358919082733167</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03204802328431235</v>
+        <v>0.03031954294611761</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>97</v>
+      </c>
+      <c r="J60" t="n">
+        <v>483</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3106684879.566951</v>
+        <v>2213964845.77654</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1443640892791741</v>
+        <v>0.1422849518332971</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02253895076366386</v>
+        <v>0.02793883810989974</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2071827028.677278</v>
+        <v>1600631896.368757</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1271289679788159</v>
+        <v>0.1595454456595068</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04875515639998539</v>
+        <v>0.04582404323604598</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4867601810.67459</v>
+        <v>5157976790.57082</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06829397595830385</v>
+        <v>0.0845144098006767</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03693055832120441</v>
+        <v>0.0385692816636508</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>241</v>
+      </c>
+      <c r="J63" t="n">
+        <v>482</v>
+      </c>
+      <c r="K63" t="n">
+        <v>29.30476208759854</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5362296762.984629</v>
+        <v>5038330798.309946</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1716313883158602</v>
+        <v>0.1300616097298889</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03036224367464121</v>
+        <v>0.02776874104307452</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>241</v>
+      </c>
+      <c r="J64" t="n">
+        <v>482</v>
+      </c>
+      <c r="K64" t="n">
+        <v>26.97444736679019</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5729095996.875307</v>
+        <v>4208390208.210318</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1419829995185736</v>
+        <v>0.1363684531231146</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03098282762403949</v>
+        <v>0.02986057959067918</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>339</v>
+      </c>
+      <c r="J65" t="n">
+        <v>482</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27.5702857974901</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4187507420.898561</v>
+        <v>5170989601.14825</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1475160728914673</v>
+        <v>0.1287917540109687</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0510994732408323</v>
+        <v>0.04523088655020353</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>239</v>
+      </c>
+      <c r="J66" t="n">
+        <v>482</v>
+      </c>
+      <c r="K66" t="n">
+        <v>27.37668753152811</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3147958485.747549</v>
+        <v>2493317016.131492</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08074404116403854</v>
+        <v>0.09532354576998801</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03889214531261967</v>
+        <v>0.04496917889168611</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4811425394.982566</v>
+        <v>4749239489.183194</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1580130684697002</v>
+        <v>0.1505633908166648</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03725084451540622</v>
+        <v>0.04889342063952749</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>262</v>
+      </c>
+      <c r="J68" t="n">
+        <v>483</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2189165364.312413</v>
+        <v>1661324402.785658</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1350894666601865</v>
+        <v>0.137361102022746</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04789874166381314</v>
+        <v>0.05349881678945425</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2911590807.997602</v>
+        <v>2572167113.601769</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07090384777928946</v>
+        <v>0.1028077889325761</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04196276669664783</v>
+        <v>0.04132922158369908</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>481</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4994912551.669339</v>
+        <v>3518894467.43544</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1233487466658236</v>
+        <v>0.1194544866163621</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02591296920906899</v>
+        <v>0.02871145446675846</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>326</v>
+      </c>
+      <c r="J71" t="n">
+        <v>482</v>
+      </c>
+      <c r="K71" t="n">
+        <v>21.66007500729486</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1823389314.696011</v>
+        <v>1976195549.331008</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1078022343126787</v>
+        <v>0.09059799316637981</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03274834973970584</v>
+        <v>0.04151788784951266</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2613026611.796112</v>
+        <v>3489448331.790233</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07329016656782808</v>
+        <v>0.07703565963275295</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05148615888628917</v>
+        <v>0.04839353814018847</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3055,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2609217133.555073</v>
+        <v>3659370933.190014</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1637319657802193</v>
+        <v>0.1695678407286936</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0227312977543041</v>
+        <v>0.02594817013413262</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>483</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2322575952.780917</v>
+        <v>2403473435.937571</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1634840029163935</v>
+        <v>0.1439650490051724</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02834514158519953</v>
+        <v>0.03018638007874734</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4015300426.352561</v>
+        <v>3743318336.725087</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09679695431827885</v>
+        <v>0.1040493239939422</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0310300952095913</v>
+        <v>0.02177844077898237</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>231</v>
+      </c>
+      <c r="J76" t="n">
+        <v>482</v>
+      </c>
+      <c r="K76" t="n">
+        <v>24.48888631618667</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1451357196.174006</v>
+        <v>2113641476.295753</v>
       </c>
       <c r="F77" t="n">
-        <v>0.167008986362551</v>
+        <v>0.1646751681718858</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02630308706951954</v>
+        <v>0.02667113922068039</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4189165581.7686</v>
+        <v>4061754778.792884</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1012595556240134</v>
+        <v>0.1202315513407607</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05704225184259765</v>
+        <v>0.04254623439942078</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>239</v>
+      </c>
+      <c r="J78" t="n">
+        <v>483</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1303978242.814647</v>
+        <v>1594318059.053608</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1559928129662067</v>
+        <v>0.1327493803556097</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03882180875735835</v>
+        <v>0.02792863210658828</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3469032775.965396</v>
+        <v>3532224449.960869</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0684605365313648</v>
+        <v>0.08298735246588221</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03219393388271451</v>
+        <v>0.02671948819816681</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>236</v>
+      </c>
+      <c r="J80" t="n">
+        <v>482</v>
+      </c>
+      <c r="K80" t="n">
+        <v>19.65111858975505</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3298,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3932587054.574413</v>
+        <v>4249096842.184304</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09245053196410633</v>
+        <v>0.1079643622588064</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0312244210969949</v>
+        <v>0.02741310934347444</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>226</v>
+      </c>
+      <c r="J81" t="n">
+        <v>482</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.97359452939825</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3341,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3906122085.617562</v>
+        <v>3924295746.668272</v>
       </c>
       <c r="F82" t="n">
-        <v>0.178716420278009</v>
+        <v>0.1443907447487328</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0202935446593347</v>
+        <v>0.02792999672514213</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>317</v>
+      </c>
+      <c r="J82" t="n">
+        <v>483</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2004443640.718687</v>
+        <v>2280232128.304757</v>
       </c>
       <c r="F83" t="n">
-        <v>0.110537235016724</v>
+        <v>0.1040839784514027</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03991268150259775</v>
+        <v>0.03092513092729786</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2215936877.684477</v>
+        <v>1956404401.24427</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08793312383041665</v>
+        <v>0.1037709209354841</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0369170931941523</v>
+        <v>0.05064553614105684</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3446,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2998695703.489818</v>
+        <v>3650228824.702909</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1295758835156637</v>
+        <v>0.1185752059108171</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0465866233341815</v>
+        <v>0.03858491936857657</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>72</v>
+      </c>
+      <c r="J85" t="n">
+        <v>479</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2177298347.010112</v>
+        <v>2542754944.558914</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1082602236163573</v>
+        <v>0.1123202442938799</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02742801985132829</v>
+        <v>0.01728022723098877</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1480782171.954503</v>
+        <v>1411458932.574874</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1550428470245348</v>
+        <v>0.1693314711978515</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03049844508959358</v>
+        <v>0.03470463547802659</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2623703996.43201</v>
+        <v>2564368207.978372</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1333315306821531</v>
+        <v>0.1540524016141855</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02921305960478688</v>
+        <v>0.02845413345535393</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>69</v>
+      </c>
+      <c r="J88" t="n">
+        <v>481</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2234059474.045197</v>
+        <v>2955075322.438722</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1161198784054221</v>
+        <v>0.1517596827269406</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02985498104747318</v>
+        <v>0.02524647508376927</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1634470180.662231</v>
+        <v>1905707058.537269</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1168336433868947</v>
+        <v>0.08312908242640274</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04753923935894211</v>
+        <v>0.05053696466027079</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1479000157.40747</v>
+        <v>1773026807.304988</v>
       </c>
       <c r="F91" t="n">
-        <v>0.129128273191335</v>
+        <v>0.1396208278609168</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04256483344512238</v>
+        <v>0.04518939684237986</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2619767868.930649</v>
+        <v>2405352358.78021</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09380358063621236</v>
+        <v>0.09081461737546215</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04668286385389712</v>
+        <v>0.04255955117492063</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3435211487.327085</v>
+        <v>3679858498.877635</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1262150214496648</v>
+        <v>0.09956510722166295</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05061326564595818</v>
+        <v>0.0479052864770838</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>231</v>
+      </c>
+      <c r="J93" t="n">
+        <v>483</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1645979884.838857</v>
+        <v>1806889580.011304</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1275481188359108</v>
+        <v>0.1532274271527835</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0280298959477053</v>
+        <v>0.03106955553459503</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2072316025.136372</v>
+        <v>2754895821.734416</v>
       </c>
       <c r="F95" t="n">
-        <v>0.124843516324383</v>
+        <v>0.1090542675038453</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04138536788583835</v>
+        <v>0.04617265447818163</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2324945361.430663</v>
+        <v>1496338464.725912</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397576371186348</v>
+        <v>0.1205538961912212</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03249253952744522</v>
+        <v>0.04002010959564376</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3643420204.806983</v>
+        <v>4261441038.484486</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1410719959150809</v>
+        <v>0.1427418714615771</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02669052246124528</v>
+        <v>0.0264985431672612</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>251</v>
+      </c>
+      <c r="J97" t="n">
+        <v>483</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3256174549.770016</v>
+        <v>3085542623.681812</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09724083957901124</v>
+        <v>0.1166546195085782</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02106750087013925</v>
+        <v>0.02322950379772737</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3016975099.710466</v>
+        <v>2693233269.895214</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1120774916617101</v>
+        <v>0.142849289953109</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0314936285273048</v>
+        <v>0.03037643987719325</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3487363803.368511</v>
+        <v>3640720630.59119</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1715792949693903</v>
+        <v>0.1607962434081623</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02512917794208833</v>
+        <v>0.02262318694367967</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>225</v>
+      </c>
+      <c r="J100" t="n">
+        <v>481</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2629468469.395918</v>
+        <v>3277637226.241066</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1408044061765235</v>
+        <v>0.184418956631306</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04774033263297521</v>
+        <v>0.03825173953375477</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
